--- a/src/main/webapp/WEB-INF/static/template/checkOrder/checkOrderShopSkuImportTemplate.xlsx
+++ b/src/main/webapp/WEB-INF/static/template/checkOrder/checkOrderShopSkuImportTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Microsoft:多个库位逗号分割</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>店铺sku</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25,12 +49,16 @@
     <t>最新库存数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>库位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,6 +81,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -382,34 +417,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" customWidth="1"/>
+    <col min="1" max="1" width="10.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -419,7 +458,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -432,7 +471,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
